--- a/Log videos CVC.xlsx
+++ b/Log videos CVC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>A1</t>
   </si>
@@ -50,72 +50,6 @@
   </si>
   <si>
     <t>29.96</t>
-  </si>
-  <si>
-    <t>acabo de agregar estoooooooo</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>papa</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>mama</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>jo</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>ricardo</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>gaby</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>merre</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>samu</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>betty</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>ani</t>
-  </si>
-  <si>
-    <t>7147857537920907</t>
-  </si>
-  <si>
-    <t>7147849837449450</t>
-  </si>
-  <si>
-    <t>7147092115114345</t>
   </si>
 </sst>
 </file>
@@ -123,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -139,13 +73,32 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -175,12 +128,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -478,15 +434,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:4">
+    <row customFormat="1" r="1" s="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,7 +453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" t="n">
         <v>0</v>
       </c>
@@ -508,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" t="n">
         <v>3.16</v>
       </c>
@@ -518,8 +474,10 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="n">
         <v>4.08</v>
       </c>
@@ -529,8 +487,9 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="4" t="n"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="n">
         <v>88</v>
       </c>
@@ -541,7 +500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" t="n">
         <v>89</v>
       </c>
@@ -551,8 +510,11 @@
       <c r="C6" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>23</v>
       </c>
@@ -563,7 +525,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" t="n">
         <v>56</v>
       </c>
@@ -574,7 +536,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" t="n">
         <v>24</v>
       </c>
@@ -585,7 +547,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" t="n">
         <v>34</v>
       </c>
@@ -596,7 +558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -607,7 +569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -618,385 +580,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
       <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Log videos CVC.xlsx
+++ b/Log videos CVC.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\repo CVC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3208D97-410C-4A46-827D-AAC1BC5A439E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Log videos CVC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Log videos CVC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>A1</t>
   </si>
@@ -55,35 +61,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,22 +131,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -429,20 +444,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -453,112 +464,112 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3.16</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>3.16</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>4.04</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="n">
+      <c r="E3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>4.08</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>29.96</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="n"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="n">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>88</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>46</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>89</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>38</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="n">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>23</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>59</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>56</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>21</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>24</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>18</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>34</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>15</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -569,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -580,7 +591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -591,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -602,7 +613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -613,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -624,8 +635,55 @@
         <v>5</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="6">
+        <v>43187</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>